--- a/project1/analysis/Palo.xlsx
+++ b/project1/analysis/Palo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="27795" windowHeight="12840" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="27795" windowHeight="12840"/>
   </bookViews>
   <sheets>
     <sheet name="Data Import" sheetId="1" r:id="rId1"/>
@@ -36,18 +36,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve"> Q4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> National Assessment of Educational Progress</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> New South Wales</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> vaishnava New South Wales</t>
-  </si>
-  <si>
     <t>localhost/Medicare</t>
   </si>
   <si>
@@ -100,6 +88,18 @@
   </si>
   <si>
     <t>Cube Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Northern Territory</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Q3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> palaeozoological Northern Territory</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Woodcock-Johnson Tests of Achievement</t>
   </si>
 </sst>
 </file>
@@ -109,10 +109,17 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode=";;;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -142,8 +149,140 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,8 +331,193 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -216,108 +540,355 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="8" borderId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="0">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="40" borderId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0"/>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="3" borderId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="41" borderId="1"/>
+    <xf numFmtId="0" fontId="23" fillId="40" borderId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="40" borderId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="6" borderId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="9"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="16">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="9"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="16">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="8" borderId="1" xfId="15"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="0" xfId="19">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="6">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="16" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="8" borderId="1" xfId="15" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="1" xfId="15"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="0" xfId="19">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="6">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="16" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="8" borderId="1" xfId="15" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="8" borderId="1" xfId="15" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="3" fillId="7" borderId="0" xfId="19" applyNumberFormat="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="20">
+  <cellStyles count="76">
     <cellStyle name="___col1" xfId="1"/>
+    <cellStyle name="___col1 2" xfId="48"/>
     <cellStyle name="___col2" xfId="2"/>
+    <cellStyle name="___col2 2" xfId="49"/>
     <cellStyle name="___col3" xfId="3"/>
+    <cellStyle name="___col3 2" xfId="50"/>
     <cellStyle name="___row1" xfId="4"/>
+    <cellStyle name="___row1 2" xfId="51"/>
     <cellStyle name="___row2" xfId="5"/>
+    <cellStyle name="___row2 2" xfId="52"/>
     <cellStyle name="___row3" xfId="6"/>
     <cellStyle name="__col2" xfId="7"/>
+    <cellStyle name="__col2 2" xfId="53"/>
     <cellStyle name="__col3" xfId="8"/>
     <cellStyle name="__page" xfId="9"/>
+    <cellStyle name="__page 2" xfId="54"/>
     <cellStyle name="__row2" xfId="10"/>
+    <cellStyle name="__row2 2" xfId="55"/>
     <cellStyle name="__row3" xfId="11"/>
     <cellStyle name="_col1" xfId="12"/>
+    <cellStyle name="_col1 2" xfId="56"/>
     <cellStyle name="_col2" xfId="13"/>
+    <cellStyle name="_col2 2" xfId="57"/>
     <cellStyle name="_col3" xfId="14"/>
     <cellStyle name="_data" xfId="15"/>
+    <cellStyle name="_data 2" xfId="58"/>
     <cellStyle name="_page" xfId="16"/>
+    <cellStyle name="_page 2" xfId="59"/>
     <cellStyle name="_row1" xfId="17"/>
+    <cellStyle name="_row1 2" xfId="60"/>
     <cellStyle name="_row2" xfId="18"/>
+    <cellStyle name="_row2 2" xfId="61"/>
     <cellStyle name="_row3" xfId="19"/>
+    <cellStyle name="20% - Accent1 2" xfId="64"/>
+    <cellStyle name="20% - Accent2 2" xfId="66"/>
+    <cellStyle name="20% - Accent3 2" xfId="68"/>
+    <cellStyle name="20% - Accent4 2" xfId="70"/>
+    <cellStyle name="20% - Accent5 2" xfId="72"/>
+    <cellStyle name="20% - Accent6 2" xfId="74"/>
+    <cellStyle name="40% - Accent1 2" xfId="65"/>
+    <cellStyle name="40% - Accent2 2" xfId="67"/>
+    <cellStyle name="40% - Accent3 2" xfId="69"/>
+    <cellStyle name="40% - Accent4 2" xfId="71"/>
+    <cellStyle name="40% - Accent5 2" xfId="73"/>
+    <cellStyle name="40% - Accent6 2" xfId="75"/>
+    <cellStyle name="60% - Accent1" xfId="37" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="39" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="41" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="43" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="47" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="36" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="38" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="40" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="42" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="44" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="26" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="30" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="32" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="34" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="25" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="21" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="22" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="23" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="24" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="28" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="31" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="27" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="Normal 2" xfId="62"/>
+    <cellStyle name="Note 2" xfId="63"/>
+    <cellStyle name="Output" xfId="29" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="20" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="35" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="33" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -684,44 +1255,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" style="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="40.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5703125" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="4">
-        <v>2011</v>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="14">
+        <v>2008</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4">
-        <v>135708580</v>
+        <v>20</v>
+      </c>
+      <c r="C1" s="14">
+        <v>135706199</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>0</v>
@@ -729,20 +1300,29 @@
       <c r="H1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="4">
+      <c r="I1" s="14">
         <v>45</v>
       </c>
-      <c r="J1" s="4">
-        <v>270</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
+      <c r="J1" s="14">
+        <v>90</v>
+      </c>
+      <c r="K1">
+        <v>1</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="14">
+        <f>VALUE(A1)</f>
+        <v>2008</v>
+      </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
+      <c r="C2" s="14">
+        <f>VALUE(C1)</f>
+        <v>135706199</v>
+      </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="9"/>
@@ -754,73 +1334,79 @@
         <f>IF(H1 = " ","None",H1)</f>
         <v>None</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="I2" s="14">
+        <f>VALUE(I1)</f>
+        <v>45</v>
+      </c>
+      <c r="J2" s="14">
+        <f>VALUE(J1)</f>
+        <v>90</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="I3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="J3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="6" t="s">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="b">
-        <f>IF(_paloimportactive,_xll.PALO.SETDATA(J1,FALSE,$B$5,B8,$A$1,B1,$C$1,D1,E1,F1,G2,H2,I1,J1))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>21</v>
+      <c r="F5" t="e">
+        <f ca="1">_xll.PALO.SETDATA(J2,FALSE,$B$5,"Transactions",$A$2,B1,$C$2,D1,E1,F1,G2,H2,I2)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
+        <v>17</v>
       </c>
       <c r="B6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>22</v>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -833,8 +1419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -845,12 +1431,12 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -932,29 +1518,29 @@
         <f ca="1">_xll.PALO.ENAME($A$1,"States","Australian Capital Territory",0,"All\Australian Capital Territory")</f>
         <v>Australian Capital Territory</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="4" t="e">
         <f ca="1">_xll.PALO.DATA($A$1,$A$2,B$12,$A$3,$A$4,$A13,$A$5,$A$6,$A$7,$A$8,$A$9,$A$10)</f>
-        <v>0</v>
-      </c>
-      <c r="C13" s="4">
+        <v>#NAME?</v>
+      </c>
+      <c r="C13" s="4" t="e">
         <f ca="1">_xll.PALO.DATA($A$1,$A$2,C$12,$A$3,$A$4,$A13,$A$5,$A$6,$A$7,$A$8,$A$9,$A$10)</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="4">
+        <v>#NAME?</v>
+      </c>
+      <c r="D13" s="4" t="e">
         <f ca="1">_xll.PALO.DATA($A$1,$A$2,D$12,$A$3,$A$4,$A13,$A$5,$A$6,$A$7,$A$8,$A$9,$A$10)</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="4">
+        <v>#NAME?</v>
+      </c>
+      <c r="E13" s="4" t="e">
         <f ca="1">_xll.PALO.DATA($A$1,$A$2,E$12,$A$3,$A$4,$A13,$A$5,$A$6,$A$7,$A$8,$A$9,$A$10)</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="4">
+        <v>#NAME?</v>
+      </c>
+      <c r="F13" s="4" t="e">
         <f ca="1">_xll.PALO.DATA($A$1,$A$2,F$12,$A$3,$A$4,$A13,$A$5,$A$6,$A$7,$A$8,$A$9,$A$10)</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="4">
+        <v>#NAME?</v>
+      </c>
+      <c r="G13" s="4" t="e">
         <f ca="1">_xll.PALO.DATA($A$1,$A$2,G$12,$A$3,$A$4,$A13,$A$5,$A$6,$A$7,$A$8,$A$9,$A$10)</f>
-        <v>0</v>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -962,29 +1548,29 @@
         <f ca="1">_xll.PALO.ENAME($A$1,"States","Christmas Island",0,"All\Christmas Island")</f>
         <v>Christmas Island</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="4" t="e">
         <f ca="1">_xll.PALO.DATA($A$1,$A$2,B$12,$A$3,$A$4,$A14,$A$5,$A$6,$A$7,$A$8,$A$9,$A$10)</f>
-        <v>0</v>
-      </c>
-      <c r="C14" s="4">
+        <v>#NAME?</v>
+      </c>
+      <c r="C14" s="4" t="e">
         <f ca="1">_xll.PALO.DATA($A$1,$A$2,C$12,$A$3,$A$4,$A14,$A$5,$A$6,$A$7,$A$8,$A$9,$A$10)</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="4">
+        <v>#NAME?</v>
+      </c>
+      <c r="D14" s="4" t="e">
         <f ca="1">_xll.PALO.DATA($A$1,$A$2,D$12,$A$3,$A$4,$A14,$A$5,$A$6,$A$7,$A$8,$A$9,$A$10)</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="4">
+        <v>#NAME?</v>
+      </c>
+      <c r="E14" s="4" t="e">
         <f ca="1">_xll.PALO.DATA($A$1,$A$2,E$12,$A$3,$A$4,$A14,$A$5,$A$6,$A$7,$A$8,$A$9,$A$10)</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="4">
+        <v>#NAME?</v>
+      </c>
+      <c r="F14" s="4" t="e">
         <f ca="1">_xll.PALO.DATA($A$1,$A$2,F$12,$A$3,$A$4,$A14,$A$5,$A$6,$A$7,$A$8,$A$9,$A$10)</f>
-        <v>0</v>
-      </c>
-      <c r="G14" s="4">
+        <v>#NAME?</v>
+      </c>
+      <c r="G14" s="4" t="e">
         <f ca="1">_xll.PALO.DATA($A$1,$A$2,G$12,$A$3,$A$4,$A14,$A$5,$A$6,$A$7,$A$8,$A$9,$A$10)</f>
-        <v>0</v>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -992,29 +1578,29 @@
         <f ca="1">_xll.PALO.ENAME($A$1,"States","New South Wales",0,"All\New South Wales")</f>
         <v>New South Wales</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="4" t="e">
         <f ca="1">_xll.PALO.DATA($A$1,$A$2,B$12,$A$3,$A$4,$A15,$A$5,$A$6,$A$7,$A$8,$A$9,$A$10)</f>
-        <v>0</v>
-      </c>
-      <c r="C15" s="4">
+        <v>#NAME?</v>
+      </c>
+      <c r="C15" s="4" t="e">
         <f ca="1">_xll.PALO.DATA($A$1,$A$2,C$12,$A$3,$A$4,$A15,$A$5,$A$6,$A$7,$A$8,$A$9,$A$10)</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="4">
+        <v>#NAME?</v>
+      </c>
+      <c r="D15" s="4" t="e">
         <f ca="1">_xll.PALO.DATA($A$1,$A$2,D$12,$A$3,$A$4,$A15,$A$5,$A$6,$A$7,$A$8,$A$9,$A$10)</f>
-        <v>0</v>
-      </c>
-      <c r="E15" s="4">
+        <v>#NAME?</v>
+      </c>
+      <c r="E15" s="4" t="e">
         <f ca="1">_xll.PALO.DATA($A$1,$A$2,E$12,$A$3,$A$4,$A15,$A$5,$A$6,$A$7,$A$8,$A$9,$A$10)</f>
-        <v>0</v>
-      </c>
-      <c r="F15" s="4">
+        <v>#NAME?</v>
+      </c>
+      <c r="F15" s="4" t="e">
         <f ca="1">_xll.PALO.DATA($A$1,$A$2,F$12,$A$3,$A$4,$A15,$A$5,$A$6,$A$7,$A$8,$A$9,$A$10)</f>
-        <v>0</v>
-      </c>
-      <c r="G15" s="4">
+        <v>#NAME?</v>
+      </c>
+      <c r="G15" s="4" t="e">
         <f ca="1">_xll.PALO.DATA($A$1,$A$2,G$12,$A$3,$A$4,$A15,$A$5,$A$6,$A$7,$A$8,$A$9,$A$10)</f>
-        <v>0</v>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -1022,29 +1608,29 @@
         <f ca="1">_xll.PALO.ENAME($A$1,"States","Northern Territory",0,"All\Northern Territory")</f>
         <v>Northern Territory</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="4" t="e">
         <f ca="1">_xll.PALO.DATA($A$1,$A$2,B$12,$A$3,$A$4,$A16,$A$5,$A$6,$A$7,$A$8,$A$9,$A$10)</f>
-        <v>0</v>
-      </c>
-      <c r="C16" s="4">
+        <v>#NAME?</v>
+      </c>
+      <c r="C16" s="4" t="e">
         <f ca="1">_xll.PALO.DATA($A$1,$A$2,C$12,$A$3,$A$4,$A16,$A$5,$A$6,$A$7,$A$8,$A$9,$A$10)</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="4">
+        <v>#NAME?</v>
+      </c>
+      <c r="D16" s="4" t="e">
         <f ca="1">_xll.PALO.DATA($A$1,$A$2,D$12,$A$3,$A$4,$A16,$A$5,$A$6,$A$7,$A$8,$A$9,$A$10)</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="4">
+        <v>#NAME?</v>
+      </c>
+      <c r="E16" s="4" t="e">
         <f ca="1">_xll.PALO.DATA($A$1,$A$2,E$12,$A$3,$A$4,$A16,$A$5,$A$6,$A$7,$A$8,$A$9,$A$10)</f>
-        <v>0</v>
-      </c>
-      <c r="F16" s="4">
+        <v>#NAME?</v>
+      </c>
+      <c r="F16" s="4" t="e">
         <f ca="1">_xll.PALO.DATA($A$1,$A$2,F$12,$A$3,$A$4,$A16,$A$5,$A$6,$A$7,$A$8,$A$9,$A$10)</f>
-        <v>0</v>
-      </c>
-      <c r="G16" s="4">
+        <v>#NAME?</v>
+      </c>
+      <c r="G16" s="4" t="e">
         <f ca="1">_xll.PALO.DATA($A$1,$A$2,G$12,$A$3,$A$4,$A16,$A$5,$A$6,$A$7,$A$8,$A$9,$A$10)</f>
-        <v>0</v>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -1052,29 +1638,29 @@
         <f ca="1">_xll.PALO.ENAME($A$1,"States","Queensland",0,"All\Queensland")</f>
         <v>Queensland</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="4" t="e">
         <f ca="1">_xll.PALO.DATA($A$1,$A$2,B$12,$A$3,$A$4,$A17,$A$5,$A$6,$A$7,$A$8,$A$9,$A$10)</f>
-        <v>0</v>
-      </c>
-      <c r="C17" s="4">
+        <v>#NAME?</v>
+      </c>
+      <c r="C17" s="4" t="e">
         <f ca="1">_xll.PALO.DATA($A$1,$A$2,C$12,$A$3,$A$4,$A17,$A$5,$A$6,$A$7,$A$8,$A$9,$A$10)</f>
-        <v>0</v>
-      </c>
-      <c r="D17" s="4">
+        <v>#NAME?</v>
+      </c>
+      <c r="D17" s="4" t="e">
         <f ca="1">_xll.PALO.DATA($A$1,$A$2,D$12,$A$3,$A$4,$A17,$A$5,$A$6,$A$7,$A$8,$A$9,$A$10)</f>
-        <v>0</v>
-      </c>
-      <c r="E17" s="4">
+        <v>#NAME?</v>
+      </c>
+      <c r="E17" s="4" t="e">
         <f ca="1">_xll.PALO.DATA($A$1,$A$2,E$12,$A$3,$A$4,$A17,$A$5,$A$6,$A$7,$A$8,$A$9,$A$10)</f>
-        <v>0</v>
-      </c>
-      <c r="F17" s="4">
+        <v>#NAME?</v>
+      </c>
+      <c r="F17" s="4" t="e">
         <f ca="1">_xll.PALO.DATA($A$1,$A$2,F$12,$A$3,$A$4,$A17,$A$5,$A$6,$A$7,$A$8,$A$9,$A$10)</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="4">
+        <v>#NAME?</v>
+      </c>
+      <c r="G17" s="4" t="e">
         <f ca="1">_xll.PALO.DATA($A$1,$A$2,G$12,$A$3,$A$4,$A17,$A$5,$A$6,$A$7,$A$8,$A$9,$A$10)</f>
-        <v>0</v>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -1082,29 +1668,29 @@
         <f ca="1">_xll.PALO.ENAME($A$1,"States","South Australia",0,"All\South Australia")</f>
         <v>South Australia</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="4" t="e">
         <f ca="1">_xll.PALO.DATA($A$1,$A$2,B$12,$A$3,$A$4,$A18,$A$5,$A$6,$A$7,$A$8,$A$9,$A$10)</f>
-        <v>0</v>
-      </c>
-      <c r="C18" s="4">
+        <v>#NAME?</v>
+      </c>
+      <c r="C18" s="4" t="e">
         <f ca="1">_xll.PALO.DATA($A$1,$A$2,C$12,$A$3,$A$4,$A18,$A$5,$A$6,$A$7,$A$8,$A$9,$A$10)</f>
-        <v>0</v>
-      </c>
-      <c r="D18" s="4">
+        <v>#NAME?</v>
+      </c>
+      <c r="D18" s="4" t="e">
         <f ca="1">_xll.PALO.DATA($A$1,$A$2,D$12,$A$3,$A$4,$A18,$A$5,$A$6,$A$7,$A$8,$A$9,$A$10)</f>
-        <v>0</v>
-      </c>
-      <c r="E18" s="4">
+        <v>#NAME?</v>
+      </c>
+      <c r="E18" s="4" t="e">
         <f ca="1">_xll.PALO.DATA($A$1,$A$2,E$12,$A$3,$A$4,$A18,$A$5,$A$6,$A$7,$A$8,$A$9,$A$10)</f>
-        <v>0</v>
-      </c>
-      <c r="F18" s="4">
+        <v>#NAME?</v>
+      </c>
+      <c r="F18" s="4" t="e">
         <f ca="1">_xll.PALO.DATA($A$1,$A$2,F$12,$A$3,$A$4,$A18,$A$5,$A$6,$A$7,$A$8,$A$9,$A$10)</f>
-        <v>0</v>
-      </c>
-      <c r="G18" s="4">
+        <v>#NAME?</v>
+      </c>
+      <c r="G18" s="4" t="e">
         <f ca="1">_xll.PALO.DATA($A$1,$A$2,G$12,$A$3,$A$4,$A18,$A$5,$A$6,$A$7,$A$8,$A$9,$A$10)</f>
-        <v>0</v>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -1112,29 +1698,29 @@
         <f ca="1">_xll.PALO.ENAME($A$1,"States","Tasmania",0,"All\Tasmania")</f>
         <v>Tasmania</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="4" t="e">
         <f ca="1">_xll.PALO.DATA($A$1,$A$2,B$12,$A$3,$A$4,$A19,$A$5,$A$6,$A$7,$A$8,$A$9,$A$10)</f>
-        <v>0</v>
-      </c>
-      <c r="C19" s="4">
+        <v>#NAME?</v>
+      </c>
+      <c r="C19" s="4" t="e">
         <f ca="1">_xll.PALO.DATA($A$1,$A$2,C$12,$A$3,$A$4,$A19,$A$5,$A$6,$A$7,$A$8,$A$9,$A$10)</f>
-        <v>0</v>
-      </c>
-      <c r="D19" s="4">
+        <v>#NAME?</v>
+      </c>
+      <c r="D19" s="4" t="e">
         <f ca="1">_xll.PALO.DATA($A$1,$A$2,D$12,$A$3,$A$4,$A19,$A$5,$A$6,$A$7,$A$8,$A$9,$A$10)</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="4">
+        <v>#NAME?</v>
+      </c>
+      <c r="E19" s="4" t="e">
         <f ca="1">_xll.PALO.DATA($A$1,$A$2,E$12,$A$3,$A$4,$A19,$A$5,$A$6,$A$7,$A$8,$A$9,$A$10)</f>
-        <v>0</v>
-      </c>
-      <c r="F19" s="4">
+        <v>#NAME?</v>
+      </c>
+      <c r="F19" s="4" t="e">
         <f ca="1">_xll.PALO.DATA($A$1,$A$2,F$12,$A$3,$A$4,$A19,$A$5,$A$6,$A$7,$A$8,$A$9,$A$10)</f>
-        <v>0</v>
-      </c>
-      <c r="G19" s="4">
+        <v>#NAME?</v>
+      </c>
+      <c r="G19" s="4" t="e">
         <f ca="1">_xll.PALO.DATA($A$1,$A$2,G$12,$A$3,$A$4,$A19,$A$5,$A$6,$A$7,$A$8,$A$9,$A$10)</f>
-        <v>0</v>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -1142,29 +1728,29 @@
         <f ca="1">_xll.PALO.ENAME($A$1,"States","Victoria",0,"All\Victoria")</f>
         <v>Victoria</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="4" t="e">
         <f ca="1">_xll.PALO.DATA($A$1,$A$2,B$12,$A$3,$A$4,$A20,$A$5,$A$6,$A$7,$A$8,$A$9,$A$10)</f>
-        <v>0</v>
-      </c>
-      <c r="C20" s="4">
+        <v>#NAME?</v>
+      </c>
+      <c r="C20" s="4" t="e">
         <f ca="1">_xll.PALO.DATA($A$1,$A$2,C$12,$A$3,$A$4,$A20,$A$5,$A$6,$A$7,$A$8,$A$9,$A$10)</f>
-        <v>0</v>
-      </c>
-      <c r="D20" s="4">
+        <v>#NAME?</v>
+      </c>
+      <c r="D20" s="4" t="e">
         <f ca="1">_xll.PALO.DATA($A$1,$A$2,D$12,$A$3,$A$4,$A20,$A$5,$A$6,$A$7,$A$8,$A$9,$A$10)</f>
-        <v>0</v>
-      </c>
-      <c r="E20" s="4">
+        <v>#NAME?</v>
+      </c>
+      <c r="E20" s="4" t="e">
         <f ca="1">_xll.PALO.DATA($A$1,$A$2,E$12,$A$3,$A$4,$A20,$A$5,$A$6,$A$7,$A$8,$A$9,$A$10)</f>
-        <v>0</v>
-      </c>
-      <c r="F20" s="4">
+        <v>#NAME?</v>
+      </c>
+      <c r="F20" s="4" t="e">
         <f ca="1">_xll.PALO.DATA($A$1,$A$2,F$12,$A$3,$A$4,$A20,$A$5,$A$6,$A$7,$A$8,$A$9,$A$10)</f>
-        <v>0</v>
-      </c>
-      <c r="G20" s="4">
+        <v>#NAME?</v>
+      </c>
+      <c r="G20" s="4" t="e">
         <f ca="1">_xll.PALO.DATA($A$1,$A$2,G$12,$A$3,$A$4,$A20,$A$5,$A$6,$A$7,$A$8,$A$9,$A$10)</f>
-        <v>0</v>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -1172,29 +1758,29 @@
         <f ca="1">_xll.PALO.ENAME($A$1,"States","Western Australia",0,"All\Western Australia")</f>
         <v>Western Australia</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="4" t="e">
         <f ca="1">_xll.PALO.DATA($A$1,$A$2,B$12,$A$3,$A$4,$A21,$A$5,$A$6,$A$7,$A$8,$A$9,$A$10)</f>
-        <v>0</v>
-      </c>
-      <c r="C21" s="4">
+        <v>#NAME?</v>
+      </c>
+      <c r="C21" s="4" t="e">
         <f ca="1">_xll.PALO.DATA($A$1,$A$2,C$12,$A$3,$A$4,$A21,$A$5,$A$6,$A$7,$A$8,$A$9,$A$10)</f>
-        <v>0</v>
-      </c>
-      <c r="D21" s="4">
+        <v>#NAME?</v>
+      </c>
+      <c r="D21" s="4" t="e">
         <f ca="1">_xll.PALO.DATA($A$1,$A$2,D$12,$A$3,$A$4,$A21,$A$5,$A$6,$A$7,$A$8,$A$9,$A$10)</f>
-        <v>0</v>
-      </c>
-      <c r="E21" s="4">
+        <v>#NAME?</v>
+      </c>
+      <c r="E21" s="4" t="e">
         <f ca="1">_xll.PALO.DATA($A$1,$A$2,E$12,$A$3,$A$4,$A21,$A$5,$A$6,$A$7,$A$8,$A$9,$A$10)</f>
-        <v>0</v>
-      </c>
-      <c r="F21" s="4">
+        <v>#NAME?</v>
+      </c>
+      <c r="F21" s="4" t="e">
         <f ca="1">_xll.PALO.DATA($A$1,$A$2,F$12,$A$3,$A$4,$A21,$A$5,$A$6,$A$7,$A$8,$A$9,$A$10)</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="4">
+        <v>#NAME?</v>
+      </c>
+      <c r="G21" s="4" t="e">
         <f ca="1">_xll.PALO.DATA($A$1,$A$2,G$12,$A$3,$A$4,$A21,$A$5,$A$6,$A$7,$A$8,$A$9,$A$10)</f>
-        <v>0</v>
+        <v>#NAME?</v>
       </c>
     </row>
   </sheetData>
@@ -1218,12 +1804,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1285,9 +1871,9 @@
         <f ca="1">_xll.PALO.ENAME($A$1,"States","All",3,"All")</f>
         <v>All</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="4" t="e">
         <f ca="1">_xll.PALO.DATA($A$1,$A$2,$A$3,$A$4,B$12,$A13,$A$5,$A$6,$A$7,$A$8,$A$9,$A$10)</f>
-        <v>0</v>
+        <v>#NAME?</v>
       </c>
     </row>
   </sheetData>
